--- a/iherb_추천시스템/iherb_mctoil.xlsx
+++ b/iherb_추천시스템/iherb_mctoil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -37,118 +37,115 @@
     <t>Nature's Way, 유기농 MCT 오일, 480ml(16fl oz)</t>
   </si>
   <si>
+    <t>Sports Research, 유기농 MCT C8 오일, 무맛, 473ml(16fl oz)</t>
+  </si>
+  <si>
+    <t>Sports Research, MCT 오일, 무맛, 32 액량 온스 (946 ml)</t>
+  </si>
+  <si>
+    <t>NOW Foods, Sports, MCT 오일, 무맛, 473ml(16fl oz)</t>
+  </si>
+  <si>
     <t>NOW Foods, 카프릴산, 600mg, 소프트젤 100정</t>
   </si>
   <si>
-    <t>NOW Foods, Sports, MCT 오일, 무맛, 473ml(16fl oz)</t>
+    <t>Sports Research, MCT 오일, 1,000mg, 소프트젤 120정</t>
+  </si>
+  <si>
+    <t>Sports Research, 유기농 중쇄중성지방 오일 가루, 무맛, 300g(10.6oz)</t>
   </si>
   <si>
     <t>NOW Foods, Sports, 중쇄중성지방 오일, 946ml(32fl oz)</t>
   </si>
   <si>
-    <t>Sports Research, MCT 오일, 무맛, 32 액량 온스 (946 ml)</t>
-  </si>
-  <si>
     <t>Jarrow Formulas, MCT 오일, 무맛, 591ml(20fl oz)</t>
   </si>
   <si>
-    <t>Sports Research, MCT 오일, 1,000mg, 소프트젤 120정</t>
+    <t>Nutiva, 100% 유기농 코코넛 MCT 오일, 무맛, 473ml(16fl oz)</t>
   </si>
   <si>
     <t>Garden of Life, 박사가 만든 케토, 유기농 MCT 분말, 300g(10.58oz)</t>
   </si>
   <si>
-    <t>BulletProof, XCT 오일, 16 fl oz (473 ml)</t>
+    <t>Garden of Life, 닥터 포뮬레이티드 두뇌 건강, 100% 유기농 코코넛 중쇄중성지방 오일, 무맛, 946ml(32fl oz)</t>
+  </si>
+  <si>
+    <t>Nutiva, 유기농 MCT 분말, 초콜릿, 10.6 oz(300g)</t>
+  </si>
+  <si>
+    <t>NOW Foods, 스포츠, 유기농 MCT 오일, 32 fl oz (946mL)</t>
+  </si>
+  <si>
+    <t>Sports Research, 유기농 MCT 오일, 무맛, 946ml(32fl oz)</t>
+  </si>
+  <si>
+    <t>RSP Nutrition, Clean Active Nutrition, 중쇄중성지방 오일, 945ml(32oz)</t>
+  </si>
+  <si>
+    <t>Dr. Mercola, Mitomix, Keto Creamer with Grass Fed Butter, 10.58 oz (300 g)</t>
+  </si>
+  <si>
+    <t>Purely Inspired, 100% Pure MCT Oil, 16 fl oz (475 ml)</t>
   </si>
   <si>
     <t>Carlson Labs, MCT &amp; 오메가-3, 120 + 30 추가 소프트젤</t>
   </si>
   <si>
-    <t>Sports Research, 유기농 중쇄중성지방 오일 가루, 무맛, 300g(10.6oz)</t>
-  </si>
-  <si>
-    <t>Garden of Life, Dr. Formulated 두뇌 건강, 100% 유기농 코코넛 중쇄중성지방 오일, 무맛, 473ml(16fl oz)</t>
-  </si>
-  <si>
-    <t>SuperFat, Keto Nut Butter, Macadamia MCT + Probiotics, 1.06 oz (30 g)</t>
-  </si>
-  <si>
-    <t>Sports Research, 유기농 MCT 오일, 무맛, 946ml(32fl oz)</t>
-  </si>
-  <si>
-    <t>Garden of Life, 의사가 제조한 케토, 유기농 목초 사육 버터 파우더, 300g(10.58oz)</t>
-  </si>
-  <si>
     <t>Dr. Mercola, Mitomix 케톤 에너지, 473ml(16fl oz)</t>
   </si>
   <si>
-    <t>NOW Foods, 스포츠, 유기농 MCT 오일, 32 fl oz (946mL)</t>
-  </si>
-  <si>
-    <t>Nutiva, 100% 유기농 코코넛 MCT 오일, 무맛, 473ml(16fl oz)</t>
-  </si>
-  <si>
     <t>NOW Foods, Sports, MCT Oil, Vanilla Hazelnut, 16 fl oz (473 ml)</t>
   </si>
   <si>
+    <t>Carlson Labs, MCT &amp; 오메가-3, 천연 레몬 라임, 200ml(6.7fl oz)</t>
+  </si>
+  <si>
     <t>RAPIDFIRE, 터보 크리머, 프렌치 바닐라 향, 250g(8.8oz)</t>
   </si>
   <si>
-    <t>Nutiva, 유기농 MCT 분말, 초콜릿, 10.6 oz(300g)</t>
-  </si>
-  <si>
-    <t>Carlson Labs, MCT &amp; 오메가-3, 천연 레몬 라임, 200ml(6.7fl oz)</t>
-  </si>
-  <si>
     <t>NOW Foods, 스포츠, MCT 오일, 초콜릿 모카, 16 fl oz (473 ml)</t>
   </si>
   <si>
-    <t>Purely Inspired, 100% Pure MCT Oil, 16 fl oz (475 ml)</t>
-  </si>
-  <si>
-    <t>RAPIDFIRE, 콜라겐 크리머, 천연향료, 214.2g(7.6oz)</t>
-  </si>
-  <si>
-    <t>RSP Nutrition, Clean Active Nutrition, 중쇄중성지방 오일, 945ml(32oz)</t>
+    <t>Kiss My Keto, MCT Oil Softgels, 300 Softgels</t>
+  </si>
+  <si>
+    <t>DietWorks, MCT Oil, 1,000 mg, 90 Softgels</t>
+  </si>
+  <si>
+    <t>NuNaturals, MCT Oil Powder, Unflavored, 1 lb (454 g)</t>
+  </si>
+  <si>
+    <t>Onnit, 유화 MCT 오일, 비유제품 크리머, 크리미 바닐라, 473ml(16fl oz)</t>
+  </si>
+  <si>
+    <t>Nutiva, 100% 유기농 코코넛 MCT 오일, 무맛, 946ml(32fl oz)</t>
+  </si>
+  <si>
+    <t>BPI Sports, Keto Bomb, 케토 커피 크리머, 프렌치 바닐라 라떼, 468g(1lbs 0.5oz)</t>
   </si>
   <si>
     <t>Onnit, MCT 오일, 무맛, 709ml(24fl oz)</t>
   </si>
   <si>
-    <t>Onnit, 유화 MCT 오일, 비유제품 크리머, 크리미 바닐라, 473ml(16fl oz)</t>
-  </si>
-  <si>
-    <t>Dr. Mercola, Mitomix, Keto Creamer with Grass Fed Butter, 10.58 oz (300 g)</t>
-  </si>
-  <si>
-    <t>DietWorks, MCT Oil, 1,000 mg, 90 Softgels</t>
-  </si>
-  <si>
-    <t>NuNaturals, MCT Oil Powder, Unflavored, 1 lb (454 g)</t>
-  </si>
-  <si>
-    <t>Kiss My Keto, MCT Oil Softgels, 300 Softgels</t>
+    <t>Vitamin Bounty, Stay In Keto, Fractioned MCT Powder from Coconut, 180 g</t>
   </si>
   <si>
     <t>Dr. Mercola, Mitomix, Keto Creamer with Coconut Milk, 10.58 oz (300 g)</t>
   </si>
   <si>
-    <t>Protocol for Life Balance, 퓨어 MCT 오일, 32 fl oz (946 ml)</t>
-  </si>
-  <si>
-    <t>Nutiva, 100% 유기농 코코넛 MCT 오일, 무맛, 946ml(32fl oz)</t>
-  </si>
-  <si>
-    <t>Vitamin Bounty, Stay In Keto, Fractioned MCT Powder from Coconut, 180 g</t>
+    <t>Coromega, Max Ketogenic MCT Energy, Chocolate Brownie,  60 Single Serve Pouches, (10 g) Each</t>
   </si>
   <si>
     <t>Country Farms, MCT Oil, 100% Coconut Source, 15 fl oz (443 ml)</t>
   </si>
   <si>
-    <t>Carlson Labs, MCT 및 오메가-3, 천연 레몬 라임, 500ml(16.9fl oz)</t>
-  </si>
-  <si>
-    <t>Sports Research, 유기농 MCT C8 오일, 무맛, 473ml(16fl oz)</t>
+    <t>Quest Nutrition, MCT 오일 파우더, 16 oz (454 g)</t>
+  </si>
+  <si>
+    <t>Nutiva, 유기농 중쇄중성지방 분말, 바닐라, 300g(10.6oz)</t>
+  </si>
+  <si>
+    <t>Zhou Nutrition, MCT 파우더 위드 프리바이오틱 파이버 , 14.5 oz (411 g)</t>
   </si>
   <si>
     <t>Nutiva, 유기농 중쇄중성지방 분말, 무맛, 300g(10.6oz)</t>
@@ -157,142 +154,133 @@
     <t>Julian Bakery, KetoThin C8 Fuel, 473ml(16fl oz)</t>
   </si>
   <si>
-    <t>Nutiva, 유기농 중쇄중성지방 분말, 바닐라, 300g(10.6oz)</t>
+    <t>Jarrow Formulas, 유기농 중쇄중성지방 오일, 무맛, 473ml(16fl oz)</t>
+  </si>
+  <si>
+    <t>NOW Foods, Sports, 유청 단백질 함유 MCT 분말, 무맛, 454g(1lb)</t>
+  </si>
+  <si>
+    <t>NOW Foods, Sports, MCT Powder with Whey Protein, Chocolate Mocha, 1 lb (454 g)</t>
   </si>
   <si>
     <t>Buried Treasure, 리퀴드 뉴트리언츠, 코코넛 오일, 16 액량 온스 (473 ml)</t>
   </si>
   <si>
-    <t>Jarrow Formulas, 유기농 중쇄중성지방 오일, 무맛, 473ml(16fl oz)</t>
-  </si>
-  <si>
-    <t>NOW Foods, Sports, 유청 단백질 함유 MCT 분말, 무맛, 454g(1lb)</t>
-  </si>
-  <si>
-    <t>NOW Foods, Sports, MCT Powder with Whey Protein, Chocolate Mocha, 1 lb (454 g)</t>
-  </si>
-  <si>
-    <t>Quest Nutrition, MCT 오일 파우더, 16 oz (454 g)</t>
-  </si>
-  <si>
     <t>99739</t>
   </si>
   <si>
     <t>66202</t>
   </si>
   <si>
+    <t>84966</t>
+  </si>
+  <si>
+    <t>71107</t>
+  </si>
+  <si>
+    <t>72853</t>
+  </si>
+  <si>
     <t>13376</t>
   </si>
   <si>
-    <t>72853</t>
+    <t>75244</t>
+  </si>
+  <si>
+    <t>84970</t>
   </si>
   <si>
     <t>13585</t>
   </si>
   <si>
-    <t>71107</t>
-  </si>
-  <si>
     <t>68705</t>
   </si>
   <si>
-    <t>75244</t>
+    <t>76228</t>
   </si>
   <si>
     <t>86686</t>
   </si>
   <si>
-    <t>78309</t>
+    <t>79831</t>
+  </si>
+  <si>
+    <t>89351</t>
+  </si>
+  <si>
+    <t>86757</t>
+  </si>
+  <si>
+    <t>79969</t>
+  </si>
+  <si>
+    <t>86431</t>
+  </si>
+  <si>
+    <t>98642</t>
+  </si>
+  <si>
+    <t>102362</t>
   </si>
   <si>
     <t>71877</t>
   </si>
   <si>
-    <t>84970</t>
-  </si>
-  <si>
-    <t>79830</t>
-  </si>
-  <si>
-    <t>111540</t>
-  </si>
-  <si>
-    <t>79969</t>
-  </si>
-  <si>
-    <t>86685</t>
-  </si>
-  <si>
     <t>73793</t>
   </si>
   <si>
-    <t>86757</t>
-  </si>
-  <si>
-    <t>76228</t>
-  </si>
-  <si>
     <t>69740</t>
   </si>
   <si>
+    <t>90179</t>
+  </si>
+  <si>
     <t>97666</t>
   </si>
   <si>
-    <t>89351</t>
-  </si>
-  <si>
-    <t>90179</t>
-  </si>
-  <si>
     <t>72622</t>
   </si>
   <si>
-    <t>102362</t>
-  </si>
-  <si>
-    <t>97664</t>
-  </si>
-  <si>
-    <t>86431</t>
+    <t>106312</t>
+  </si>
+  <si>
+    <t>106395</t>
+  </si>
+  <si>
+    <t>112131</t>
+  </si>
+  <si>
+    <t>84072</t>
+  </si>
+  <si>
+    <t>76229</t>
+  </si>
+  <si>
+    <t>73478</t>
   </si>
   <si>
     <t>84071</t>
   </si>
   <si>
-    <t>84072</t>
-  </si>
-  <si>
-    <t>98642</t>
-  </si>
-  <si>
-    <t>106395</t>
-  </si>
-  <si>
-    <t>112131</t>
-  </si>
-  <si>
-    <t>106312</t>
+    <t>104530</t>
   </si>
   <si>
     <t>98641</t>
   </si>
   <si>
-    <t>81748</t>
-  </si>
-  <si>
-    <t>76229</t>
-  </si>
-  <si>
-    <t>104530</t>
+    <t>105319</t>
   </si>
   <si>
     <t>102617</t>
   </si>
   <si>
-    <t>90177</t>
-  </si>
-  <si>
-    <t>84966</t>
+    <t>82828</t>
+  </si>
+  <si>
+    <t>89350</t>
+  </si>
+  <si>
+    <t>81767</t>
   </si>
   <si>
     <t>82001</t>
@@ -301,142 +289,136 @@
     <t>82529</t>
   </si>
   <si>
-    <t>89350</t>
+    <t>104456</t>
+  </si>
+  <si>
+    <t>100197</t>
+  </si>
+  <si>
+    <t>100545</t>
   </si>
   <si>
     <t>45436</t>
   </si>
   <si>
-    <t>104456</t>
-  </si>
-  <si>
-    <t>100197</t>
-  </si>
-  <si>
-    <t>100545</t>
-  </si>
-  <si>
-    <t>82828</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/r/california-gold-nutrition-sports-organic-mct-oil-32-fl-oz-946-ml/99739</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/nature-s-way-organic-mct-oil-16-fl-oz-480-ml/66202</t>
   </si>
   <si>
+    <t>https://kr.iherb.com/r/sports-research-organic-mct-c8-oil-unflavored-16-fl-oz-473-ml/84966</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/sports-research-mct-oil-unflavored-32-fl-oz-946-ml/71107</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/now-foods-sports-mct-oil-unflavored-16-fl-oz-473-ml/72853</t>
+  </si>
+  <si>
     <t>https://kr.iherb.com/r/now-foods-caprylic-acid-600-mg-100-softgels/13376</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/now-foods-sports-mct-oil-unflavored-16-fl-oz-473-ml/72853</t>
+    <t>https://kr.iherb.com/r/sports-research-mct-oil-1-000-mg-120-softgels/75244</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/sports-research-organic-mct-oil-powder-unflavored-10-6-oz-300-g/84970</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/now-foods-sports-mct-oil-32-fl-oz-946-ml/13585</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/sports-research-mct-oil-unflavored-32-fl-oz-946-ml/71107</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/r/jarrow-formulas-mct-oil-unflavored-20-fl-oz-591-ml/68705</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/sports-research-mct-oil-1-000-mg-120-softgels/75244</t>
+    <t>https://kr.iherb.com/r/nutiva-organic-mct-oil-16-fl-oz-473-ml/76228</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/garden-of-life-dr-formulated-keto-organic-mct-powder-10-58-oz-300-g/86686</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/bulletproof-mct-oil-16-fl-oz-473-ml/78309</t>
+    <t>https://kr.iherb.com/r/garden-of-life-dr-formulated-brain-health-100-organic-coconut-mct-oil-unflavored-32-fl-oz-946-ml/79831</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/nutiva-organic-mct-powder-chocolate-10-6-oz-300-g/89351</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/now-foods-sports-organic-mct-oil-32-fl-oz-946-ml/86757</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/sports-research-organic-mct-oil-unflavored-32-fl-oz-946-ml/79969</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/rsp-nutrition-clean-active-nutrition-mct-oil-32-oz-945-ml/86431</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/dr-mercola-mitomix-keto-creamer-with-grass-fed-butter-10-58-oz-300-g/98642</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/purely-inspired-100-pure-mct-oil-16-fl-oz-475-ml/102362</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/carlson-labs-mct-omega-3-120-30-free-soft-gels/71877</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/sports-research-organic-mct-oil-powder-unflavored-10-6-oz-300-g/84970</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/garden-of-life-dr-formulated-brain-health-100-organic-coconut-mct-oil-unflavored-16-fl-oz-473-ml/79830</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/superfat-keto-nut-butter-macadamia-mct-probiotics-1-06-oz-30-g/111540</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/sports-research-organic-mct-oil-unflavored-32-fl-oz-946-ml/79969</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/garden-of-life-dr-formulated-keto-organic-grass-fed-butter-powder-10-58-oz-300-g/86685</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/r/dr-mercola-mitomix-ketone-energy-16-fl-oz-473-ml/73793</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/now-foods-sports-organic-mct-oil-32-fl-oz-946-ml/86757</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/nutiva-organic-mct-oil-16-fl-oz-473-ml/76228</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/r/now-foods-sports-mct-oil-vanilla-hazelnut-16-fl-oz-473-ml/69740</t>
   </si>
   <si>
+    <t>https://kr.iherb.com/r/carlson-labs-mct-omega-3-natural-lemon-lime-6-7-fl-oz-200-ml/90179</t>
+  </si>
+  <si>
     <t>https://kr.iherb.com/r/rapidfire-turbo-creamer-french-vanilla-flavor-8-8-oz-250-g/97666</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/nutiva-organic-mct-powder-chocolate-10-6-oz-300-g/89351</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/carlson-labs-mct-omega-3-natural-lemon-lime-6-7-fl-oz-200-ml/90179</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/r/now-foods-sports-mct-oil-chocolate-mocha-16-fl-oz-473-ml/72622</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/purely-inspired-100-pure-mct-oil-16-fl-oz-475-ml/102362</t>
+    <t>https://kr.iherb.com/r/kiss-my-keto-mct-oil-softgels-300-softgels/106312</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/dietworks-mct-oil-1-000-mg-90-softgels/106395</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/onnit-emulsified-mct-oil-non-dairy-creamer-creamy-vanilla-16-fl-oz-473-ml/84072</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/rapidfire-collagen-creamer-natural-flavor-7-6-oz-214-2-g/97664</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/rsp-nutrition-clean-active-nutrition-mct-oil-32-oz-945-ml/86431</t>
+    <t>https://kr.iherb.com/r/bpi-sports-keto-bomb-keto-coffee-creamer-french-vanilla-latte-1-lbs-0-5-oz-468-g/73478</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/protocol-for-life-balance-pure-mct-oil-32-fl-oz-946-ml/81748</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/onnit-mct-oil-unflavored-24-fl-oz-709-ml/84071</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/onnit-emulsified-mct-oil-non-dairy-creamer-creamy-vanilla-16-fl-oz-473-ml/84072</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/dr-mercola-mitomix-keto-creamer-with-grass-fed-butter-10-58-oz-300-g/98642</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/dietworks-mct-oil-1-000-mg-90-softgels/106395</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/kiss-my-keto-mct-oil-softgels-300-softgels/106312</t>
+    <t>https://kr.iherb.com/r/vitamin-bounty-stay-in-keto-fractioned-mct-powder-from-coconut-180-g/104530</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/dr-mercola-mitomix-keto-creamer-with-coconut-milk-10-58-oz-300-g/98641</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/protocol-for-life-balance-pure-mct-oil-32-fl-oz-946-ml/81748</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/bpi-sports-keto-bomb-keto-coffee-creamer-french-vanilla-latte-1-lbs-0-5-oz-468-g/73478</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/vitamin-bounty-stay-in-keto-fractioned-mct-powder-from-coconut-180-g/104530</t>
+    <t>https://kr.iherb.com/r/coromega-max-ketogenic-mct-energy-chocolate-brownie-60-single-serve-pouches-10-g-each/105319</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/country-farms-mct-oil-100-coconut-source-15-fl-oz-443-ml/102617</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/coromega-max-ketogenic-mct-energy-chocolate-brownie-60-single-serve-pouches-10-g-each/105319</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/sports-research-organic-mct-c8-oil-unflavored-16-fl-oz-473-ml/84966</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/childlife-clinicals-liquid-iron-natural-berry-4-fl-oz-118-ml/103377</t>
+    <t>https://kr.iherb.com/r/quest-nutrition-mct-oil-powder-16-oz-454-g/82828</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/nutiva-organic-mct-powder-vanilla-10-6-oz-300-g/89350</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/garden-of-life-mykind-organics-women-s-multi-organic-berry-120-vegan-gummy-drops/73828</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/zhou-nutrition-mct-powder-with-prebiotic-fiber-14-5-oz-411-g/81767</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/nutiva-organic-mct-powder-with-prebiotic-acacia-unflavored-10-6-oz-300-g/82001</t>
@@ -445,22 +427,16 @@
     <t>https://kr.iherb.com/r/julian-bakery-ketothin-c8-fuel-16-fl-oz-473-ml/82529</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/nutiva-organic-mct-powder-vanilla-10-6-oz-300-g/89350</t>
+    <t>https://kr.iherb.com/r/jarrow-formulas-organic-mct-oil-unflavored-16-fl-oz-473-ml/104456</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/now-foods-sports-mct-powder-with-whey-protein-unflavored-1-lb-454-g/100197</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/now-foods-sports-mct-powder-with-whey-protein-chocolate-mocha-1-lb-454-g/100545</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/buried-treasure-liquid-nutrients-coconut-oil-16-fl-oz-473-ml/45436</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/jarrow-formulas-organic-mct-oil-unflavored-16-fl-oz-473-ml/104456</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/now-foods-sports-mct-powder-with-whey-protein-unflavored-1-lb-454-g/100197</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/now-foods-sports-mct-powder-with-whey-protein-chocolate-mocha-1-lb-454-g/100545</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/quest-nutrition-mct-oil-powder-16-oz-454-g/82828</t>
   </si>
 </sst>
 </file>
@@ -831,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,16 +838,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>4.8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F2">
-        <v>5929</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -882,56 +858,56 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>4.7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F3">
-        <v>6427</v>
+        <v>6447</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4">
-        <v>3587</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F5">
-        <v>1913</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -942,16 +918,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F6">
-        <v>706</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -962,76 +938,76 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>2208</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F8">
-        <v>1557</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>4.7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F9">
-        <v>390</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>4.7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F10">
-        <v>473</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1042,16 +1018,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1062,16 +1038,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F12">
-        <v>377</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1082,233 +1058,233 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>4.7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F13">
-        <v>270</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>4.7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F14">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F16">
-        <v>180</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>4.6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F17">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F18">
-        <v>169</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F19">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F20">
-        <v>489</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F21">
-        <v>138</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F22">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F23">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24">
         <v>4.8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F24">
         <v>104</v>
@@ -1316,22 +1292,22 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <v>4.3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F25">
-        <v>74</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1342,476 +1318,436 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F26">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F27">
-        <v>152</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F28">
-        <v>249</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F30">
-        <v>35</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D31">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D32">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D33">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F33">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D34">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D35">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F35">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D36">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F36">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D37">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F37">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D38">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D39">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D40">
         <v>4.7</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F40">
-        <v>715</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D41">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F41">
-        <v>584</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>4.6</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F42">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>4.3</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F43">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D44">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F44">
-        <v>190</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D45">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F45">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46">
+        <v>4.6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46">
         <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46">
-        <v>4.7</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46">
-        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D47">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F47">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1">
-        <v>54</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48">
-        <v>4.6</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49">
-        <v>4.7</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49">
-        <v>231</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1862,8 +1798,6 @@
     <hyperlink ref="E45" r:id="rId44"/>
     <hyperlink ref="E46" r:id="rId45"/>
     <hyperlink ref="E47" r:id="rId46"/>
-    <hyperlink ref="E48" r:id="rId47"/>
-    <hyperlink ref="E49" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
